--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2352,28 +2352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1599.254934036377</v>
+        <v>1672.428537718447</v>
       </c>
       <c r="AB2" t="n">
-        <v>2188.171154896799</v>
+        <v>2288.290507646166</v>
       </c>
       <c r="AC2" t="n">
-        <v>1979.335170990953</v>
+        <v>2069.899273232314</v>
       </c>
       <c r="AD2" t="n">
-        <v>1599254.934036377</v>
+        <v>1672428.537718447</v>
       </c>
       <c r="AE2" t="n">
-        <v>2188171.154896799</v>
+        <v>2288290.507646166</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.289180685865165e-06</v>
+        <v>2.385321794956077e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.7875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1979335.170990953</v>
+        <v>2069899.273232314</v>
       </c>
     </row>
     <row r="3">
@@ -2458,28 +2458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>545.0372785956567</v>
+        <v>581.5388290906707</v>
       </c>
       <c r="AB3" t="n">
-        <v>745.7440499222747</v>
+        <v>795.6870816443087</v>
       </c>
       <c r="AC3" t="n">
-        <v>674.5712844560397</v>
+        <v>719.7478233260083</v>
       </c>
       <c r="AD3" t="n">
-        <v>545037.2785956567</v>
+        <v>581538.8290906707</v>
       </c>
       <c r="AE3" t="n">
-        <v>745744.0499222747</v>
+        <v>795687.0816443088</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.418034385901901e-06</v>
+        <v>4.473996690211268e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.284375</v>
       </c>
       <c r="AH3" t="n">
-        <v>674571.2844560398</v>
+        <v>719747.8233260083</v>
       </c>
     </row>
     <row r="4">
@@ -2564,28 +2564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>407.2757197409712</v>
+        <v>443.6919293814134</v>
       </c>
       <c r="AB4" t="n">
-        <v>557.2526074862535</v>
+        <v>607.07887208609</v>
       </c>
       <c r="AC4" t="n">
-        <v>504.0692007367114</v>
+        <v>549.1401165747412</v>
       </c>
       <c r="AD4" t="n">
-        <v>407275.7197409712</v>
+        <v>443691.9293814134</v>
       </c>
       <c r="AE4" t="n">
-        <v>557252.6074862535</v>
+        <v>607078.8720860899</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.844600451927672e-06</v>
+        <v>5.263255593510077e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.342708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>504069.2007367114</v>
+        <v>549140.1165747412</v>
       </c>
     </row>
     <row r="5">
@@ -2670,28 +2670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>337.5172087625246</v>
+        <v>374.0186697489875</v>
       </c>
       <c r="AB5" t="n">
-        <v>461.8059352372396</v>
+        <v>511.7488444897253</v>
       </c>
       <c r="AC5" t="n">
-        <v>417.7318249268976</v>
+        <v>462.9082530156394</v>
       </c>
       <c r="AD5" t="n">
-        <v>337517.2087625246</v>
+        <v>374018.6697489875</v>
       </c>
       <c r="AE5" t="n">
-        <v>461805.9352372396</v>
+        <v>511748.8444897254</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.076410807233743e-06</v>
+        <v>5.692165442122185e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.939583333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>417731.8249268975</v>
+        <v>462908.2530156394</v>
       </c>
     </row>
     <row r="6">
@@ -2776,28 +2776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>324.5125675958373</v>
+        <v>361.0140285823002</v>
       </c>
       <c r="AB6" t="n">
-        <v>444.0124114687011</v>
+        <v>493.9553207211869</v>
       </c>
       <c r="AC6" t="n">
-        <v>401.636490093461</v>
+        <v>446.812918182203</v>
       </c>
       <c r="AD6" t="n">
-        <v>324512.5675958373</v>
+        <v>361014.0285823002</v>
       </c>
       <c r="AE6" t="n">
-        <v>444012.4114687011</v>
+        <v>493955.3207211869</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.128199778998158e-06</v>
+        <v>5.787988598986438e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.858333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>401636.490093461</v>
+        <v>446812.918182203</v>
       </c>
     </row>
   </sheetData>
@@ -3073,28 +3073,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>967.3586771109397</v>
+        <v>1014.41361515036</v>
       </c>
       <c r="AB2" t="n">
-        <v>1323.582818876041</v>
+        <v>1387.965461018931</v>
       </c>
       <c r="AC2" t="n">
-        <v>1197.261932302665</v>
+        <v>1255.499985441043</v>
       </c>
       <c r="AD2" t="n">
-        <v>967358.6771109396</v>
+        <v>1014413.61515036</v>
       </c>
       <c r="AE2" t="n">
-        <v>1323582.818876041</v>
+        <v>1387965.461018931</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.703231195492943e-06</v>
+        <v>3.246621522365364e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.230208333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1197261.932302665</v>
+        <v>1255499.985441043</v>
       </c>
     </row>
     <row r="3">
@@ -3179,28 +3179,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>412.2311419337486</v>
+        <v>447.5222783319002</v>
       </c>
       <c r="AB3" t="n">
-        <v>564.0328347482094</v>
+        <v>612.3197245032155</v>
       </c>
       <c r="AC3" t="n">
-        <v>510.202332624895</v>
+        <v>553.8807893927587</v>
       </c>
       <c r="AD3" t="n">
-        <v>412231.1419337486</v>
+        <v>447522.2783319002</v>
       </c>
       <c r="AE3" t="n">
-        <v>564032.8347482095</v>
+        <v>612319.7245032155</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.757978920577133e-06</v>
+        <v>5.257133468122189e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AH3" t="n">
-        <v>510202.332624895</v>
+        <v>553880.7893927587</v>
       </c>
     </row>
     <row r="4">
@@ -3285,28 +3285,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>323.9922655999479</v>
+        <v>347.5197793739334</v>
       </c>
       <c r="AB4" t="n">
-        <v>443.3005113238214</v>
+        <v>475.4918936300404</v>
       </c>
       <c r="AC4" t="n">
-        <v>400.9925326992503</v>
+        <v>430.1116146590526</v>
       </c>
       <c r="AD4" t="n">
-        <v>323992.2655999479</v>
+        <v>347519.7793739334</v>
       </c>
       <c r="AE4" t="n">
-        <v>443300.5113238214</v>
+        <v>475491.8936300404</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.140247626778057e-06</v>
+        <v>5.985796618587497e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.006250000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>400992.5326992503</v>
+        <v>430111.6146590526</v>
       </c>
     </row>
     <row r="5">
@@ -3391,28 +3391,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>303.2255523791644</v>
+        <v>338.4313479227446</v>
       </c>
       <c r="AB5" t="n">
-        <v>414.8865781324176</v>
+        <v>463.0567007652261</v>
       </c>
       <c r="AC5" t="n">
-        <v>375.2903854124285</v>
+        <v>418.8632191483534</v>
       </c>
       <c r="AD5" t="n">
-        <v>303225.5523791644</v>
+        <v>338431.3479227446</v>
       </c>
       <c r="AE5" t="n">
-        <v>414886.5781324176</v>
+        <v>463056.7007652261</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.186427738936558e-06</v>
+        <v>6.073823039449079e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.933333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>375290.3854124285</v>
+        <v>418863.2191483534</v>
       </c>
     </row>
   </sheetData>
@@ -3688,28 +3688,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>292.6359244160737</v>
+        <v>324.0262518896464</v>
       </c>
       <c r="AB2" t="n">
-        <v>400.3973819719033</v>
+        <v>443.347012864756</v>
       </c>
       <c r="AC2" t="n">
-        <v>362.1840177977591</v>
+        <v>401.0345961983836</v>
       </c>
       <c r="AD2" t="n">
-        <v>292635.9244160737</v>
+        <v>324026.2518896464</v>
       </c>
       <c r="AE2" t="n">
-        <v>400397.3819719033</v>
+        <v>443347.012864756</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.056284349799569e-06</v>
+        <v>6.509085826490779e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.739583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>362184.017797759</v>
+        <v>401034.5961983835</v>
       </c>
     </row>
     <row r="3">
@@ -3794,28 +3794,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>275.7031404475289</v>
+        <v>307.0934679211015</v>
       </c>
       <c r="AB3" t="n">
-        <v>377.2291999244336</v>
+        <v>420.1788308172864</v>
       </c>
       <c r="AC3" t="n">
-        <v>341.2269745281522</v>
+        <v>380.0775529287767</v>
       </c>
       <c r="AD3" t="n">
-        <v>275703.1404475289</v>
+        <v>307093.4679211015</v>
       </c>
       <c r="AE3" t="n">
-        <v>377229.1999244336</v>
+        <v>420178.8308172864</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.168943682546051e-06</v>
+        <v>6.749020721962834e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.535416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>341226.9745281522</v>
+        <v>380077.5529287767</v>
       </c>
     </row>
   </sheetData>
@@ -4091,28 +4091,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>456.8107956625416</v>
+        <v>500.6126389927714</v>
       </c>
       <c r="AB2" t="n">
-        <v>625.0286836954627</v>
+        <v>684.9602981408287</v>
       </c>
       <c r="AC2" t="n">
-        <v>565.3768233568342</v>
+        <v>619.5886486340836</v>
       </c>
       <c r="AD2" t="n">
-        <v>456810.7956625416</v>
+        <v>500612.6389927714</v>
       </c>
       <c r="AE2" t="n">
-        <v>625028.6836954628</v>
+        <v>684960.2981408287</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.503533690641747e-06</v>
+        <v>5.083038942867122e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>565376.8233568341</v>
+        <v>619588.6486340836</v>
       </c>
     </row>
     <row r="3">
@@ -4197,28 +4197,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>285.5249096132475</v>
+        <v>307.4685912141993</v>
       </c>
       <c r="AB3" t="n">
-        <v>390.6677778028442</v>
+        <v>420.6920910561745</v>
       </c>
       <c r="AC3" t="n">
-        <v>353.3829933950099</v>
+        <v>380.5418283308304</v>
       </c>
       <c r="AD3" t="n">
-        <v>285524.9096132476</v>
+        <v>307468.5912141993</v>
       </c>
       <c r="AE3" t="n">
-        <v>390667.7778028442</v>
+        <v>420692.0910561745</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.22414541511025e-06</v>
+        <v>6.546129881827523e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.205208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>353382.9933950098</v>
+        <v>380541.8283308304</v>
       </c>
     </row>
     <row r="4">
@@ -4303,28 +4303,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>287.0694219132687</v>
+        <v>309.0131035142205</v>
       </c>
       <c r="AB4" t="n">
-        <v>392.7810476708069</v>
+        <v>422.8053609241371</v>
       </c>
       <c r="AC4" t="n">
-        <v>355.2945757527671</v>
+        <v>382.4534106885877</v>
       </c>
       <c r="AD4" t="n">
-        <v>287069.4219132687</v>
+        <v>309013.1035142204</v>
       </c>
       <c r="AE4" t="n">
-        <v>392781.0476708069</v>
+        <v>422805.3609241371</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.22414541511025e-06</v>
+        <v>6.546129881827523e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.205208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>355294.575752767</v>
+        <v>382453.4106885877</v>
       </c>
     </row>
   </sheetData>
@@ -4600,28 +4600,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>271.1645879716645</v>
+        <v>311.1798594504952</v>
       </c>
       <c r="AB2" t="n">
-        <v>371.019352200152</v>
+        <v>425.7700119866736</v>
       </c>
       <c r="AC2" t="n">
-        <v>335.6097859551001</v>
+        <v>385.1351196146297</v>
       </c>
       <c r="AD2" t="n">
-        <v>271164.5879716645</v>
+        <v>311179.8594504952</v>
       </c>
       <c r="AE2" t="n">
-        <v>371019.3522001519</v>
+        <v>425770.0119866736</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.046883331980563e-06</v>
+        <v>6.784814050755546e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.979166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>335609.7859551001</v>
+        <v>385135.1196146297</v>
       </c>
     </row>
   </sheetData>
@@ -4897,28 +4897,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1087.882438398569</v>
+        <v>1147.268590036528</v>
       </c>
       <c r="AB2" t="n">
-        <v>1488.48874620286</v>
+        <v>1569.74349880602</v>
       </c>
       <c r="AC2" t="n">
-        <v>1346.429469372334</v>
+        <v>1419.929382428811</v>
       </c>
       <c r="AD2" t="n">
-        <v>1087882.438398569</v>
+        <v>1147268.590036528</v>
       </c>
       <c r="AE2" t="n">
-        <v>1488488.74620286</v>
+        <v>1569743.49880602</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.592362519921972e-06</v>
+        <v>3.010781199945159e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.783333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1346429.469372334</v>
+        <v>1419929.382428811</v>
       </c>
     </row>
     <row r="3">
@@ -5003,28 +5003,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>442.1004008549651</v>
+        <v>477.7320918377406</v>
       </c>
       <c r="AB3" t="n">
-        <v>604.90127254292</v>
+        <v>653.6541241048163</v>
       </c>
       <c r="AC3" t="n">
-        <v>547.1703440756911</v>
+        <v>591.2702919095769</v>
       </c>
       <c r="AD3" t="n">
-        <v>442100.4008549651</v>
+        <v>477732.0918377406</v>
       </c>
       <c r="AE3" t="n">
-        <v>604901.27254292</v>
+        <v>653654.1241048164</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.66321023689777e-06</v>
+        <v>5.035501157830699e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.849999999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>547170.3440756911</v>
+        <v>591270.291909577</v>
       </c>
     </row>
     <row r="4">
@@ -5109,28 +5109,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>343.4905305303216</v>
+        <v>367.2450806940563</v>
       </c>
       <c r="AB4" t="n">
-        <v>469.9788976042973</v>
+        <v>502.4809211151098</v>
       </c>
       <c r="AC4" t="n">
-        <v>425.124771236468</v>
+        <v>454.524847240285</v>
       </c>
       <c r="AD4" t="n">
-        <v>343490.5305303216</v>
+        <v>367245.0806940563</v>
       </c>
       <c r="AE4" t="n">
-        <v>469978.8976042973</v>
+        <v>502480.9211151098</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.068218004714873e-06</v>
+        <v>5.801275130729308e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.077083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>425124.771236468</v>
+        <v>454524.847240285</v>
       </c>
     </row>
     <row r="5">
@@ -5215,28 +5215,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>308.3644040459787</v>
+        <v>343.9107541741826</v>
       </c>
       <c r="AB5" t="n">
-        <v>421.917781693088</v>
+        <v>470.5538661327866</v>
       </c>
       <c r="AC5" t="n">
-        <v>381.6505407736247</v>
+        <v>425.6448655755717</v>
       </c>
       <c r="AD5" t="n">
-        <v>308364.4040459787</v>
+        <v>343910.7541741826</v>
       </c>
       <c r="AE5" t="n">
-        <v>421917.781693088</v>
+        <v>470553.8661327866</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.170965544039228e-06</v>
+        <v>5.995546445124192e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.913541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>381650.5407736247</v>
+        <v>425644.8655755717</v>
       </c>
     </row>
     <row r="6">
@@ -5321,28 +5321,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>309.8352561567056</v>
+        <v>345.3816062849095</v>
       </c>
       <c r="AB6" t="n">
-        <v>423.9302664403999</v>
+        <v>472.5663508800985</v>
       </c>
       <c r="AC6" t="n">
-        <v>383.4709568011932</v>
+        <v>427.4652816031402</v>
       </c>
       <c r="AD6" t="n">
-        <v>309835.2561567056</v>
+        <v>345381.6062849095</v>
       </c>
       <c r="AE6" t="n">
-        <v>423930.2664403999</v>
+        <v>472566.3508800985</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.170666424565212e-06</v>
+        <v>5.994980880890146e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.913541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>383470.9568011932</v>
+        <v>427465.2816031402</v>
       </c>
     </row>
   </sheetData>
@@ -5618,28 +5618,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>283.0430726828038</v>
+        <v>312.3565882911795</v>
       </c>
       <c r="AB2" t="n">
-        <v>387.2720190236933</v>
+        <v>427.3800643001106</v>
       </c>
       <c r="AC2" t="n">
-        <v>350.3113210677637</v>
+        <v>386.5915107949948</v>
       </c>
       <c r="AD2" t="n">
-        <v>283043.0726828038</v>
+        <v>312356.5882911796</v>
       </c>
       <c r="AE2" t="n">
-        <v>387272.0190236933</v>
+        <v>427380.0643001106</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.926609345187425e-06</v>
+        <v>6.709447269702194e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.370833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>350311.3210677637</v>
+        <v>386591.5107949948</v>
       </c>
     </row>
   </sheetData>
@@ -5915,28 +5915,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>667.0562181389615</v>
+        <v>712.6373808055895</v>
       </c>
       <c r="AB2" t="n">
-        <v>912.6957461011168</v>
+        <v>975.0619037605718</v>
       </c>
       <c r="AC2" t="n">
-        <v>825.5893450697505</v>
+        <v>882.0033641736391</v>
       </c>
       <c r="AD2" t="n">
-        <v>667056.2181389615</v>
+        <v>712637.3808055895</v>
       </c>
       <c r="AE2" t="n">
-        <v>912695.7461011168</v>
+        <v>975061.9037605718</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.066301635694099e-06</v>
+        <v>4.04992264980783e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.838541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>825589.3450697504</v>
+        <v>882003.3641736391</v>
       </c>
     </row>
     <row r="3">
@@ -6021,28 +6021,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>331.1188986129719</v>
+        <v>365.1341784123508</v>
       </c>
       <c r="AB3" t="n">
-        <v>453.0514850170997</v>
+        <v>499.592691486844</v>
       </c>
       <c r="AC3" t="n">
-        <v>409.8128871488198</v>
+        <v>451.9122661940852</v>
       </c>
       <c r="AD3" t="n">
-        <v>331118.8986129719</v>
+        <v>365134.1784123508</v>
       </c>
       <c r="AE3" t="n">
-        <v>453051.4850170997</v>
+        <v>499592.691486844</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.055993103162903e-06</v>
+        <v>5.989704248575746e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="AH3" t="n">
-        <v>409812.8871488197</v>
+        <v>451912.2661940852</v>
       </c>
     </row>
     <row r="4">
@@ -6127,28 +6127,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>299.8615223546664</v>
+        <v>322.6521931965315</v>
       </c>
       <c r="AB4" t="n">
-        <v>410.2837638423691</v>
+        <v>441.466965141645</v>
       </c>
       <c r="AC4" t="n">
-        <v>371.1268572581317</v>
+        <v>399.3339775913026</v>
       </c>
       <c r="AD4" t="n">
-        <v>299861.5223546664</v>
+        <v>322652.1931965315</v>
       </c>
       <c r="AE4" t="n">
-        <v>410283.7638423691</v>
+        <v>441466.965141645</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.218635251626747e-06</v>
+        <v>6.308480611861094e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.032291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>371126.8572581317</v>
+        <v>399333.9775913027</v>
       </c>
     </row>
     <row r="5">
@@ -6233,28 +6233,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>301.2986304205465</v>
+        <v>324.0893012624115</v>
       </c>
       <c r="AB5" t="n">
-        <v>412.2500784988394</v>
+        <v>443.4332797981153</v>
       </c>
       <c r="AC5" t="n">
-        <v>372.9055096035284</v>
+        <v>401.1126299366995</v>
       </c>
       <c r="AD5" t="n">
-        <v>301298.6304205465</v>
+        <v>324089.3012624115</v>
       </c>
       <c r="AE5" t="n">
-        <v>412250.0784988394</v>
+        <v>443433.2797981153</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.218479762001065e-06</v>
+        <v>6.308175854343613e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.032291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>372905.5096035284</v>
+        <v>401112.6299366995</v>
       </c>
     </row>
   </sheetData>
@@ -6530,28 +6530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>852.0239321380548</v>
+        <v>910.1679776135059</v>
       </c>
       <c r="AB2" t="n">
-        <v>1165.7767325943</v>
+        <v>1245.33198074806</v>
       </c>
       <c r="AC2" t="n">
-        <v>1054.516637413419</v>
+        <v>1126.479244339877</v>
       </c>
       <c r="AD2" t="n">
-        <v>852023.9321380547</v>
+        <v>910167.9776135059</v>
       </c>
       <c r="AE2" t="n">
-        <v>1165776.7325943</v>
+        <v>1245331.98074806</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.817521841141672e-06</v>
+        <v>3.49455484418019e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.731249999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>1054516.637413419</v>
+        <v>1126479.244339877</v>
       </c>
     </row>
     <row r="3">
@@ -6636,28 +6636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>385.4686362121189</v>
+        <v>420.4062680101326</v>
       </c>
       <c r="AB3" t="n">
-        <v>527.4151937414513</v>
+        <v>575.2184029070264</v>
       </c>
       <c r="AC3" t="n">
-        <v>477.07942788264</v>
+        <v>520.3203658576781</v>
       </c>
       <c r="AD3" t="n">
-        <v>385468.6362121189</v>
+        <v>420406.2680101326</v>
       </c>
       <c r="AE3" t="n">
-        <v>527415.1937414513</v>
+        <v>575218.4029070265</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.850294729750171e-06</v>
+        <v>5.48027045932667e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.567708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>477079.42788264</v>
+        <v>520320.3658576781</v>
       </c>
     </row>
     <row r="4">
@@ -6742,28 +6742,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>298.7138002070044</v>
+        <v>333.5660911504465</v>
       </c>
       <c r="AB4" t="n">
-        <v>408.7133997660102</v>
+        <v>456.3998418093876</v>
       </c>
       <c r="AC4" t="n">
-        <v>369.7063665252008</v>
+        <v>412.8416814683</v>
       </c>
       <c r="AD4" t="n">
-        <v>298713.8002070044</v>
+        <v>333566.0911504465</v>
       </c>
       <c r="AE4" t="n">
-        <v>408713.3997660102</v>
+        <v>456399.8418093876</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.189880327730455e-06</v>
+        <v>6.13319273490736e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.975</v>
       </c>
       <c r="AH4" t="n">
-        <v>369706.3665252008</v>
+        <v>412841.6814682999</v>
       </c>
     </row>
     <row r="5">
@@ -6848,28 +6848,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>298.5926101448657</v>
+        <v>333.4449010883079</v>
       </c>
       <c r="AB5" t="n">
-        <v>408.5475821764638</v>
+        <v>456.2340242198412</v>
       </c>
       <c r="AC5" t="n">
-        <v>369.5563743336743</v>
+        <v>412.6916892767735</v>
       </c>
       <c r="AD5" t="n">
-        <v>298592.6101448657</v>
+        <v>333444.9010883078</v>
       </c>
       <c r="AE5" t="n">
-        <v>408547.5821764638</v>
+        <v>456234.0242198412</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.199021259035442e-06</v>
+        <v>6.150768031692844e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.960416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>369556.3743336743</v>
+        <v>412691.6892767735</v>
       </c>
     </row>
   </sheetData>
@@ -7145,28 +7145,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1409.631074552266</v>
+        <v>1470.095441257665</v>
       </c>
       <c r="AB2" t="n">
-        <v>1928.719424736373</v>
+        <v>2011.449438762296</v>
       </c>
       <c r="AC2" t="n">
-        <v>1744.645149814248</v>
+        <v>1819.479527413841</v>
       </c>
       <c r="AD2" t="n">
-        <v>1409631.074552266</v>
+        <v>1470095.441257665</v>
       </c>
       <c r="AE2" t="n">
-        <v>1928719.424736373</v>
+        <v>2011449.438762296</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.38668746779307e-06</v>
+        <v>2.583293577212525e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.04583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1744645.149814248</v>
+        <v>1819479.52741384</v>
       </c>
     </row>
     <row r="3">
@@ -7251,28 +7251,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>513.3521146886254</v>
+        <v>549.5454296607136</v>
       </c>
       <c r="AB3" t="n">
-        <v>702.3910108138982</v>
+        <v>751.9123010950734</v>
       </c>
       <c r="AC3" t="n">
-        <v>635.3557985537941</v>
+        <v>680.1508463941016</v>
       </c>
       <c r="AD3" t="n">
-        <v>513352.1146886254</v>
+        <v>549545.4296607135</v>
       </c>
       <c r="AE3" t="n">
-        <v>702391.0108138982</v>
+        <v>751912.3010950735</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.497802049621749e-06</v>
+        <v>4.653215769091406e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.132291666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>635355.7985537942</v>
+        <v>680150.8463941015</v>
       </c>
     </row>
     <row r="4">
@@ -7357,28 +7357,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>385.9089339404409</v>
+        <v>410.094734327731</v>
       </c>
       <c r="AB4" t="n">
-        <v>528.0176285179064</v>
+        <v>561.1097076100045</v>
       </c>
       <c r="AC4" t="n">
-        <v>477.6243671295526</v>
+        <v>507.5581846381257</v>
       </c>
       <c r="AD4" t="n">
-        <v>385908.9339404409</v>
+        <v>410094.734327731</v>
       </c>
       <c r="AE4" t="n">
-        <v>528017.6285179064</v>
+        <v>561109.7076100046</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.914102391225374e-06</v>
+        <v>5.42875173060664e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.256250000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>477624.3671295526</v>
+        <v>507558.1846381257</v>
       </c>
     </row>
     <row r="5">
@@ -7463,28 +7463,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>322.512307015269</v>
+        <v>358.705532478806</v>
       </c>
       <c r="AB5" t="n">
-        <v>441.2755666970988</v>
+        <v>490.7967345087259</v>
       </c>
       <c r="AC5" t="n">
-        <v>399.1608459456746</v>
+        <v>443.9557830047555</v>
       </c>
       <c r="AD5" t="n">
-        <v>322512.3070152689</v>
+        <v>358705.532478806</v>
       </c>
       <c r="AE5" t="n">
-        <v>441275.5666970988</v>
+        <v>490796.7345087259</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.127472859493427e-06</v>
+        <v>5.826244729602968e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.897916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>399160.8459456746</v>
+        <v>443955.7830047554</v>
       </c>
     </row>
     <row r="6">
@@ -7569,28 +7569,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>319.517682357482</v>
+        <v>355.710907821019</v>
       </c>
       <c r="AB6" t="n">
-        <v>437.1781891267989</v>
+        <v>486.6993569384259</v>
       </c>
       <c r="AC6" t="n">
-        <v>395.4545163399786</v>
+        <v>440.2494533990593</v>
       </c>
       <c r="AD6" t="n">
-        <v>319517.682357482</v>
+        <v>355710.907821019</v>
       </c>
       <c r="AE6" t="n">
-        <v>437178.1891267989</v>
+        <v>486699.3569384259</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.143207277208577e-06</v>
+        <v>5.855556756406971e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.872916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>395454.5163399786</v>
+        <v>440249.4533990594</v>
       </c>
     </row>
   </sheetData>
@@ -7866,28 +7866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>528.3582467112136</v>
+        <v>561.7197866870919</v>
       </c>
       <c r="AB2" t="n">
-        <v>722.9230626710248</v>
+        <v>768.5697934732902</v>
       </c>
       <c r="AC2" t="n">
-        <v>653.9283001985926</v>
+        <v>695.2185710786786</v>
       </c>
       <c r="AD2" t="n">
-        <v>528358.2467112136</v>
+        <v>561719.7866870919</v>
       </c>
       <c r="AE2" t="n">
-        <v>722923.0626710248</v>
+        <v>768569.7934732903</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.346204617272739e-06</v>
+        <v>4.702960949528373e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.0625</v>
       </c>
       <c r="AH2" t="n">
-        <v>653928.3001985926</v>
+        <v>695218.5710786786</v>
       </c>
     </row>
     <row r="3">
@@ -7972,28 +7972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>291.4831124521829</v>
+        <v>313.724168938952</v>
       </c>
       <c r="AB3" t="n">
-        <v>398.8200537844332</v>
+        <v>429.251248475793</v>
       </c>
       <c r="AC3" t="n">
-        <v>360.7572275987073</v>
+        <v>388.2841117791736</v>
       </c>
       <c r="AD3" t="n">
-        <v>291483.1124521829</v>
+        <v>313724.168938952</v>
       </c>
       <c r="AE3" t="n">
-        <v>398820.0537844332</v>
+        <v>429251.248475793</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.21656571444518e-06</v>
+        <v>6.447597466674409e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.152083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>360757.2275987073</v>
+        <v>388284.1117791736</v>
       </c>
     </row>
     <row r="4">
@@ -8078,28 +8078,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>291.7730773276421</v>
+        <v>314.0141338144113</v>
       </c>
       <c r="AB4" t="n">
-        <v>399.216796519384</v>
+        <v>429.6479912107437</v>
       </c>
       <c r="AC4" t="n">
-        <v>361.1161057638662</v>
+        <v>388.6429899443325</v>
       </c>
       <c r="AD4" t="n">
-        <v>291773.0773276421</v>
+        <v>314014.1338144112</v>
       </c>
       <c r="AE4" t="n">
-        <v>399216.796519384</v>
+        <v>429647.9912107437</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.223724597532872e-06</v>
+        <v>6.461947428888186e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.140625</v>
       </c>
       <c r="AH4" t="n">
-        <v>361116.1057638662</v>
+        <v>388642.9899443325</v>
       </c>
     </row>
   </sheetData>
@@ -8375,28 +8375,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>348.7109257064988</v>
+        <v>380.5614213810944</v>
       </c>
       <c r="AB2" t="n">
-        <v>477.1216725919238</v>
+        <v>520.7009259186044</v>
       </c>
       <c r="AC2" t="n">
-        <v>431.585849804223</v>
+        <v>471.0059603572715</v>
       </c>
       <c r="AD2" t="n">
-        <v>348710.9257064988</v>
+        <v>380561.4213810944</v>
       </c>
       <c r="AE2" t="n">
-        <v>477121.6725919237</v>
+        <v>520700.9259186044</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.864386885733781e-06</v>
+        <v>5.992476497744205e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.026041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>431585.849804223</v>
+        <v>471005.9603572715</v>
       </c>
     </row>
     <row r="3">
@@ -8481,28 +8481,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>277.833413641446</v>
+        <v>309.5985684614699</v>
       </c>
       <c r="AB3" t="n">
-        <v>380.1439336893715</v>
+        <v>423.6064198938545</v>
       </c>
       <c r="AC3" t="n">
-        <v>343.863530193419</v>
+        <v>383.1780177145287</v>
       </c>
       <c r="AD3" t="n">
-        <v>277833.413641446</v>
+        <v>309598.56846147</v>
       </c>
       <c r="AE3" t="n">
-        <v>380143.9336893715</v>
+        <v>423606.4198938545</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.203440143946759e-06</v>
+        <v>6.701797117610254e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.388541666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>343863.530193419</v>
+        <v>383178.0177145287</v>
       </c>
     </row>
   </sheetData>
@@ -14671,28 +14671,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>272.3654480663219</v>
+        <v>303.1616036750038</v>
       </c>
       <c r="AB2" t="n">
-        <v>372.6624219598705</v>
+        <v>414.7990806941674</v>
       </c>
       <c r="AC2" t="n">
-        <v>337.096043443014</v>
+        <v>375.2112386068815</v>
       </c>
       <c r="AD2" t="n">
-        <v>272365.4480663219</v>
+        <v>303161.6036750039</v>
       </c>
       <c r="AE2" t="n">
-        <v>372662.4219598706</v>
+        <v>414799.0806941674</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.118215729458409e-06</v>
+        <v>6.778551255141467e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.727083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>337096.043443014</v>
+        <v>375211.2386068815</v>
       </c>
     </row>
     <row r="3">
@@ -14777,28 +14777,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>274.135213954734</v>
+        <v>304.931369563416</v>
       </c>
       <c r="AB3" t="n">
-        <v>375.0838937249567</v>
+        <v>417.2205524592534</v>
       </c>
       <c r="AC3" t="n">
-        <v>339.2864133413972</v>
+        <v>377.4016085052647</v>
       </c>
       <c r="AD3" t="n">
-        <v>274135.213954734</v>
+        <v>304931.369563416</v>
       </c>
       <c r="AE3" t="n">
-        <v>375083.8937249567</v>
+        <v>417220.5524592535</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.120444250870337e-06</v>
+        <v>6.783395739271035e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.722916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>339286.4133413972</v>
+        <v>377401.6085052647</v>
       </c>
     </row>
   </sheetData>
@@ -15074,28 +15074,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>300.7113512520905</v>
+        <v>329.2485727837632</v>
       </c>
       <c r="AB2" t="n">
-        <v>411.4465372316295</v>
+        <v>450.4924227046243</v>
       </c>
       <c r="AC2" t="n">
-        <v>372.1786571870838</v>
+        <v>407.4980581517805</v>
       </c>
       <c r="AD2" t="n">
-        <v>300711.3512520905</v>
+        <v>329248.5727837632</v>
       </c>
       <c r="AE2" t="n">
-        <v>411446.5372316295</v>
+        <v>450492.4227046243</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.712579641030775e-06</v>
+        <v>6.451943816895419e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.065625</v>
       </c>
       <c r="AH2" t="n">
-        <v>372178.6571870838</v>
+        <v>407498.0581517805</v>
       </c>
     </row>
   </sheetData>
@@ -15371,28 +15371,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>762.5193128849043</v>
+        <v>808.527086743498</v>
       </c>
       <c r="AB2" t="n">
-        <v>1043.312563867021</v>
+        <v>1106.262429780081</v>
       </c>
       <c r="AC2" t="n">
-        <v>943.7402770699315</v>
+        <v>1000.682296130941</v>
       </c>
       <c r="AD2" t="n">
-        <v>762519.3128849042</v>
+        <v>808527.086743498</v>
       </c>
       <c r="AE2" t="n">
-        <v>1043312.563867021</v>
+        <v>1106262.429780081</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.935065785854061e-06</v>
+        <v>3.755146469896424e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.282291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>943740.2770699315</v>
+        <v>1000682.296130941</v>
       </c>
     </row>
     <row r="3">
@@ -15477,28 +15477,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>358.2260433191261</v>
+        <v>392.6252200219947</v>
       </c>
       <c r="AB3" t="n">
-        <v>490.1406762868831</v>
+        <v>537.2071474363181</v>
       </c>
       <c r="AC3" t="n">
-        <v>443.3623380588219</v>
+        <v>485.936851259962</v>
       </c>
       <c r="AD3" t="n">
-        <v>358226.0433191261</v>
+        <v>392625.2200219947</v>
       </c>
       <c r="AE3" t="n">
-        <v>490140.6762868831</v>
+        <v>537207.1474363181</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.948144120305646e-06</v>
+        <v>5.721104195548305e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.436458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>443362.3380588219</v>
+        <v>485936.851259962</v>
       </c>
     </row>
     <row r="4">
@@ -15583,28 +15583,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>292.9644959581673</v>
+        <v>327.4489240070564</v>
       </c>
       <c r="AB4" t="n">
-        <v>400.8469480513491</v>
+        <v>448.0300638534334</v>
       </c>
       <c r="AC4" t="n">
-        <v>362.5906779215526</v>
+        <v>405.2707033734048</v>
       </c>
       <c r="AD4" t="n">
-        <v>292964.4959581673</v>
+        <v>327448.9240070564</v>
       </c>
       <c r="AE4" t="n">
-        <v>400846.9480513491</v>
+        <v>448030.0638534334</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.209107190662554e-06</v>
+        <v>6.227523439580138e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.994791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>362590.6779215526</v>
+        <v>405270.7033734049</v>
       </c>
     </row>
     <row r="5">
@@ -15689,28 +15689,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>294.1880950386133</v>
+        <v>328.6725230875024</v>
       </c>
       <c r="AB5" t="n">
-        <v>402.5211302945968</v>
+        <v>449.7042460966812</v>
       </c>
       <c r="AC5" t="n">
-        <v>364.1050785612343</v>
+        <v>406.7851040130867</v>
       </c>
       <c r="AD5" t="n">
-        <v>294188.0950386133</v>
+        <v>328672.5230875024</v>
       </c>
       <c r="AE5" t="n">
-        <v>402521.1302945968</v>
+        <v>449704.2460966812</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.208645581457914e-06</v>
+        <v>6.226627650823007e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.994791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>364105.0785612343</v>
+        <v>406785.1040130866</v>
       </c>
     </row>
   </sheetData>
@@ -15986,28 +15986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1236.212854019403</v>
+        <v>1296.061756194005</v>
       </c>
       <c r="AB2" t="n">
-        <v>1691.440964731378</v>
+        <v>1773.328873033886</v>
       </c>
       <c r="AC2" t="n">
-        <v>1530.012213009719</v>
+        <v>1604.084854274237</v>
       </c>
       <c r="AD2" t="n">
-        <v>1236212.854019403</v>
+        <v>1296061.756194005</v>
       </c>
       <c r="AE2" t="n">
-        <v>1691440.964731378</v>
+        <v>1773328.873033886</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.488223858839907e-06</v>
+        <v>2.792491684103149e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.37916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1530012.213009719</v>
+        <v>1604084.854274237</v>
       </c>
     </row>
     <row r="3">
@@ -16092,28 +16092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>469.4535335939789</v>
+        <v>517.2301747013336</v>
       </c>
       <c r="AB3" t="n">
-        <v>642.3270354914882</v>
+        <v>707.6971436112184</v>
       </c>
       <c r="AC3" t="n">
-        <v>581.0242447358361</v>
+        <v>640.1555214841422</v>
       </c>
       <c r="AD3" t="n">
-        <v>469453.5335939789</v>
+        <v>517230.1747013336</v>
       </c>
       <c r="AE3" t="n">
-        <v>642327.0354914882</v>
+        <v>707697.1436112184</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.58426358829538e-06</v>
+        <v>4.849092115396411e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.977083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>581024.2447358361</v>
+        <v>640155.5214841423</v>
       </c>
     </row>
     <row r="4">
@@ -16198,28 +16198,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>365.4073387852778</v>
+        <v>389.3810897020778</v>
       </c>
       <c r="AB4" t="n">
-        <v>499.9664415600681</v>
+        <v>532.7683852116793</v>
       </c>
       <c r="AC4" t="n">
-        <v>452.2503460848823</v>
+        <v>481.9217182722008</v>
       </c>
       <c r="AD4" t="n">
-        <v>365407.3387852779</v>
+        <v>389381.0897020778</v>
       </c>
       <c r="AE4" t="n">
-        <v>499966.4415600681</v>
+        <v>532768.3852116793</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.985344144055263e-06</v>
+        <v>5.601676553525236e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.173958333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>452250.3460848823</v>
+        <v>481921.7182722008</v>
       </c>
     </row>
     <row r="5">
@@ -16304,28 +16304,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>313.3009526652884</v>
+        <v>349.1761039230901</v>
       </c>
       <c r="AB5" t="n">
-        <v>428.6721852991821</v>
+        <v>477.7581499500786</v>
       </c>
       <c r="AC5" t="n">
-        <v>387.7603135794181</v>
+        <v>432.1615826566172</v>
       </c>
       <c r="AD5" t="n">
-        <v>313300.9526652884</v>
+        <v>349176.1039230902</v>
       </c>
       <c r="AE5" t="n">
-        <v>428672.1852991821</v>
+        <v>477758.1499500786</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.15941755346824e-06</v>
+        <v>5.928306546265805e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.888541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>387760.3135794181</v>
+        <v>432161.5826566172</v>
       </c>
     </row>
     <row r="6">
@@ -16410,28 +16410,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>313.8719916267647</v>
+        <v>349.7471428845665</v>
       </c>
       <c r="AB6" t="n">
-        <v>429.453505998735</v>
+        <v>478.5394706496315</v>
       </c>
       <c r="AC6" t="n">
-        <v>388.4670661279962</v>
+        <v>432.8683352051953</v>
       </c>
       <c r="AD6" t="n">
-        <v>313871.9916267647</v>
+        <v>349747.1428845665</v>
       </c>
       <c r="AE6" t="n">
-        <v>429453.505998735</v>
+        <v>478539.4706496315</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.160603743651634e-06</v>
+        <v>5.930532304308332e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.886458333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>388467.0661279962</v>
+        <v>432868.3352051952</v>
       </c>
     </row>
   </sheetData>
@@ -16707,28 +16707,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>331.1645310092073</v>
+        <v>367.8906437167126</v>
       </c>
       <c r="AB2" t="n">
-        <v>453.1139212747883</v>
+        <v>503.3642089229386</v>
       </c>
       <c r="AC2" t="n">
-        <v>409.8693645777043</v>
+        <v>455.323835299437</v>
       </c>
       <c r="AD2" t="n">
-        <v>331164.5310092074</v>
+        <v>367890.6437167126</v>
       </c>
       <c r="AE2" t="n">
-        <v>453113.9212747883</v>
+        <v>503364.2089229386</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.322476736210305e-06</v>
+        <v>5.808338065590158e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.544791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>409869.3645777043</v>
+        <v>455323.8352994369</v>
       </c>
     </row>
   </sheetData>
@@ -17004,28 +17004,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>401.0636939241118</v>
+        <v>433.4202835011199</v>
       </c>
       <c r="AB2" t="n">
-        <v>548.7530397083892</v>
+        <v>593.0247530396381</v>
       </c>
       <c r="AC2" t="n">
-        <v>496.3808197783483</v>
+        <v>536.4273029250026</v>
       </c>
       <c r="AD2" t="n">
-        <v>401063.6939241118</v>
+        <v>433420.2835011199</v>
       </c>
       <c r="AE2" t="n">
-        <v>548753.0397083892</v>
+        <v>593024.753039638</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.674359918309161e-06</v>
+        <v>5.507265140830979e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.360416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>496380.8197783483</v>
+        <v>536427.3029250025</v>
       </c>
     </row>
     <row r="3">
@@ -17110,28 +17110,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>281.5945041098772</v>
+        <v>313.8657528323138</v>
       </c>
       <c r="AB3" t="n">
-        <v>385.2900235958799</v>
+        <v>429.4449698049311</v>
       </c>
       <c r="AC3" t="n">
-        <v>348.5184845018328</v>
+        <v>388.4593446165483</v>
       </c>
       <c r="AD3" t="n">
-        <v>281594.5041098772</v>
+        <v>313865.7528323138</v>
       </c>
       <c r="AE3" t="n">
-        <v>385290.0235958799</v>
+        <v>429444.9698049311</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.218801267008113e-06</v>
+        <v>6.628424204122821e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.284375</v>
       </c>
       <c r="AH3" t="n">
-        <v>348518.4845018328</v>
+        <v>388459.3446165483</v>
       </c>
     </row>
   </sheetData>
@@ -17407,28 +17407,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>596.0769180683661</v>
+        <v>640.9515551828681</v>
       </c>
       <c r="AB2" t="n">
-        <v>815.5787363588114</v>
+        <v>876.9781945881402</v>
       </c>
       <c r="AC2" t="n">
-        <v>737.7410464326715</v>
+        <v>793.2806265432739</v>
       </c>
       <c r="AD2" t="n">
-        <v>596076.9180683661</v>
+        <v>640951.5551828681</v>
       </c>
       <c r="AE2" t="n">
-        <v>815578.7363588114</v>
+        <v>876978.1945881402</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.197815448489607e-06</v>
+        <v>4.354277047178458e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.452083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>737741.0464326715</v>
+        <v>793280.6265432739</v>
       </c>
     </row>
     <row r="3">
@@ -17513,28 +17513,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>306.8625213019189</v>
+        <v>329.3852254680172</v>
       </c>
       <c r="AB3" t="n">
-        <v>419.8628394642751</v>
+        <v>450.6793969359114</v>
       </c>
       <c r="AC3" t="n">
-        <v>379.7917193470001</v>
+        <v>407.6671878248535</v>
       </c>
       <c r="AD3" t="n">
-        <v>306862.5213019189</v>
+        <v>329385.2254680172</v>
       </c>
       <c r="AE3" t="n">
-        <v>419862.8394642751</v>
+        <v>450679.3969359114</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.157188069326833e-06</v>
+        <v>6.254970840860621e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.1875</v>
       </c>
       <c r="AH3" t="n">
-        <v>379791.7193470001</v>
+        <v>407667.1878248535</v>
       </c>
     </row>
     <row r="4">
@@ -17619,28 +17619,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>294.9191931839068</v>
+        <v>317.4418973500049</v>
       </c>
       <c r="AB4" t="n">
-        <v>403.5214510307612</v>
+        <v>434.3380085023974</v>
       </c>
       <c r="AC4" t="n">
-        <v>365.0099300902981</v>
+        <v>392.8853985681515</v>
       </c>
       <c r="AD4" t="n">
-        <v>294919.1931839068</v>
+        <v>317441.8973500049</v>
       </c>
       <c r="AE4" t="n">
-        <v>403521.4510307612</v>
+        <v>434338.0085023975</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.227781039952188e-06</v>
+        <v>6.394828512667125e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.073958333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>365009.9300902981</v>
+        <v>392885.3985681515</v>
       </c>
     </row>
   </sheetData>
